--- a/RoundTube_Options.xlsx
+++ b/RoundTube_Options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schimmer\OneDrive - Rose-Hulman Institute of Technology\Documents\!! RHIT Fall 2021-22\EM204\EM204_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E33E50E-0297-4ECB-82E2-64F8DF519F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF562B-52B9-4359-AF83-66930693CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{94F3ECEF-463D-4A3F-B5B9-6A9324BF671F}"/>
   </bookViews>
@@ -49,8 +49,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,22 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547D6A7-4251-48A0-B41D-4C97424E1C73}">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1614,300 +1623,655 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>0.125</v>
+      </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1.625</v>
+      </c>
+      <c r="B103">
+        <v>0.125</v>
+      </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1.5</v>
+      </c>
+      <c r="B104">
+        <v>0.375</v>
+      </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0.1875</v>
+      </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>0.25</v>
+      </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>0.1875</v>
+      </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.5</v>
+      </c>
+      <c r="B108">
+        <v>0.25</v>
+      </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2.75</v>
+      </c>
+      <c r="B109">
+        <v>0.25</v>
+      </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4.5</v>
+      </c>
+      <c r="B110">
+        <v>0.125</v>
+      </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1.375</v>
+      </c>
+      <c r="B112">
+        <v>0.25</v>
+      </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>0.125</v>
+      </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>0.25</v>
+      </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>0.125</v>
+      </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3.5</v>
+      </c>
+      <c r="B116">
+        <v>0.1875</v>
+      </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.75</v>
+      </c>
+      <c r="B117">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>0.75</v>
+      </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3.5</v>
+      </c>
+      <c r="B119">
+        <v>0.25</v>
+      </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.5</v>
+      </c>
+      <c r="B120">
+        <v>0.375</v>
+      </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1.125</v>
+      </c>
+      <c r="B121">
+        <v>0.25</v>
+      </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>0.125</v>
+      </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2.5</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>0.1875</v>
+      </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>0.375</v>
+      </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.5</v>
+      </c>
+      <c r="B126">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>0.1875</v>
+      </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>0.25</v>
+      </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>0.125</v>
+      </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>0.25</v>
+      </c>
       <c r="C130">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4.5</v>
+      </c>
+      <c r="B131">
+        <v>0.25</v>
+      </c>
       <c r="C131">
-        <f t="shared" ref="C131:C150" si="2">A131-2*B131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C131:C155" si="2">A131-2*B131</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>0.25</v>
+      </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>0.1875</v>
+      </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3.5</v>
+      </c>
+      <c r="B136">
+        <v>0.5</v>
+      </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3.5</v>
+      </c>
+      <c r="B137">
+        <v>0.375</v>
+      </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5.5</v>
+      </c>
+      <c r="B138">
+        <v>0.25</v>
+      </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4.5</v>
+      </c>
+      <c r="B139">
+        <v>0.375</v>
+      </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140">
+        <v>0.5</v>
+      </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>0.25</v>
+      </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4.25</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>0.5</v>
+      </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4.5</v>
+      </c>
+      <c r="B144">
+        <v>0.5</v>
+      </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>4.5</v>
+      </c>
+      <c r="B145">
+        <v>0.75</v>
+      </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>0.25</v>
+      </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149">
+        <v>0.5</v>
+      </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>12</v>
+      </c>
+      <c r="B150">
+        <v>0.25</v>
+      </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7.5</v>
+      </c>
+      <c r="B151">
+        <v>0.5</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>0.5</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>9</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <v>1.5</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8.5</v>
+      </c>
+      <c r="B155">
+        <v>0.5</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RoundTube_Options.xlsx
+++ b/RoundTube_Options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schimmer\OneDrive - Rose-Hulman Institute of Technology\Documents\!! RHIT Fall 2021-22\EM204\EM204_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF562B-52B9-4359-AF83-66930693CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1380D9-17EB-4FD8-9401-9C447E24D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{94F3ECEF-463D-4A3F-B5B9-6A9324BF671F}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RoundTube_Options.xlsx
+++ b/RoundTube_Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schimmer\OneDrive - Rose-Hulman Institute of Technology\Documents\!! RHIT Fall 2021-22\EM204\EM204_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1380D9-17EB-4FD8-9401-9C447E24D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB71A44-BAC0-457E-A86E-9E10A6E9B3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{94F3ECEF-463D-4A3F-B5B9-6A9324BF671F}"/>
+    <workbookView xWindow="1170" yWindow="1260" windowWidth="21600" windowHeight="11325" xr2:uid="{94F3ECEF-463D-4A3F-B5B9-6A9324BF671F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,31 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +68,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,59 +384,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547D6A7-4251-48A0-B41D-4C97424E1C73}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1">
+        <v>0.75</v>
+      </c>
+      <c r="B1">
+        <v>0.125</v>
+      </c>
+      <c r="C1">
+        <f>A1-2*B1</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B2">
-        <v>0.125</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C2">
-        <f>A2-2*B2</f>
-        <v>0.5</v>
+        <f t="shared" ref="C2:C65" si="0">A2-2*B2</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="B3">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">A3-2*B3</f>
-        <v>0.18</v>
+        <f t="shared" si="0"/>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="B4">
-        <v>3.5000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.30499999999999999</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,131 +445,131 @@
         <v>0.25</v>
       </c>
       <c r="B5">
-        <v>4.9000000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.152</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
-        <v>6.5000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
       <c r="B7">
-        <v>3.5000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="B8">
-        <v>4.9000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.2145</v>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="B9">
-        <v>5.8000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.25900000000000001</v>
+        <v>0.11749999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>3.5000000000000003E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.11749999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B11">
-        <v>0.125</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="B12">
-        <v>5.8000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.13400000000000001</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="B13">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.245</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="B14">
-        <v>6.5000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.1825</v>
+        <v>0.55499999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="B15">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.55499999999999994</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,311 +577,311 @@
         <v>0.5</v>
       </c>
       <c r="B16">
-        <v>2.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.44400000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="B17">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.40200000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="B18">
-        <v>4.9000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.27700000000000002</v>
+        <v>0.36749999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="B19">
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.36749999999999999</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>6.5000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="B21">
-        <v>3.5000000000000003E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="B22">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.50900000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="B23">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.38400000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>5.8000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.75900000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B25">
-        <v>4.9000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.90200000000000002</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="B26">
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.67999999999999994</v>
+        <v>0.3075</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="B27">
-        <v>6.5000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.3075</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="B28">
-        <v>4.9000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.77700000000000002</v>
+        <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1.0549999999999999</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="B30">
-        <v>6.5000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.87</v>
+        <v>1.0269999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>4.9000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1.0269999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="B32">
-        <v>5.8000000000000003E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.88400000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="B33">
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="B34">
-        <v>6.5000000000000002E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>2.37</v>
+        <v>0.33399999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B35">
-        <v>8.3000000000000004E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.33399999999999996</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>1.25</v>
+      </c>
+      <c r="B36">
+        <v>0.25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
         <v>0.75</v>
-      </c>
-      <c r="B36">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="B37">
-        <v>0.25</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="B38">
-        <v>5.8000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>1.0089999999999999</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="B39">
-        <v>4.9000000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.52700000000000002</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="B40">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.62</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="B41">
-        <v>6.5000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.495</v>
+        <v>1.1519999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,155 +889,155 @@
         <v>1.25</v>
       </c>
       <c r="B42">
-        <v>4.9000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1.1519999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="B43">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>1.1339999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="B44">
-        <v>5.8000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.63400000000000001</v>
+        <v>1.2769999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="B45">
-        <v>4.9000000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>1.2769999999999999</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
       <c r="B46">
-        <v>6.5000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.745</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="B47">
-        <v>3.5000000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="B48">
-        <v>0.12</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>1.4019999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>4.9000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>1.4019999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="B50">
-        <v>0.25</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>6.5000000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>0.125</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>0.125</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="B54">
-        <v>8.3000000000000004E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.83399999999999996</v>
+        <v>1.3049999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,143 +1045,143 @@
         <v>1.375</v>
       </c>
       <c r="B55">
-        <v>3.5000000000000003E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1.3049999999999999</v>
+        <v>1.2589999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="B56">
-        <v>5.8000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>1.2589999999999999</v>
+        <v>0.80499999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="B57">
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.80499999999999994</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="B58">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1.37</v>
+        <v>1.2450000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="B59">
-        <v>6.5000000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>1.2450000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="B60">
-        <v>0.125</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5089999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="B61">
-        <v>5.8000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>1.5089999999999999</v>
+        <v>1.0840000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="B62">
-        <v>8.3000000000000004E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>1.0840000000000001</v>
+        <v>1.5269999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.625</v>
+        <v>1.75</v>
       </c>
       <c r="B63">
-        <v>4.9000000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>1.5269999999999999</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="B64">
-        <v>6.5000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>3.5000000000000003E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="B66">
         <v>0.125</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
+        <f t="shared" ref="C66:C129" si="1">A66-2*B66</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,119 +1189,119 @@
         <v>0.75</v>
       </c>
       <c r="B67">
-        <v>0.125</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">A67-2*B67</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="B68">
-        <v>9.5000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
+        <v>1.3839999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>5.8000000000000003E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>1.3839999999999999</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="B70">
-        <v>9.5000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.625</v>
+        <v>1.5</v>
       </c>
       <c r="B71">
-        <v>0.125</v>
+        <v>0.188</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>1.1240000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="B72">
-        <v>0.188</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>1.1240000000000001</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>6.5000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>0.995</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>2.25</v>
+      </c>
+      <c r="B74">
+        <v>0.125</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="B74">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>1.93</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B76">
-        <v>6.5000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>1.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,47 +1309,47 @@
         <v>1.5</v>
       </c>
       <c r="B77">
-        <v>0.25</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.3340000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1.5</v>
+        <v>0.875</v>
       </c>
       <c r="B78">
-        <v>8.3000000000000004E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>1.3340000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.875</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>0.12</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>0.63500000000000001</v>
+        <v>1.8839999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="B80">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>1.8839999999999999</v>
+        <v>1.7589999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,71 +1357,71 @@
         <v>1.875</v>
       </c>
       <c r="B81">
-        <v>5.8000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>1.7589999999999999</v>
+        <v>1.7769999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="B82">
-        <v>4.9000000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>1.7769999999999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="B83">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="B84">
-        <v>0.25</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>2.1520000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="B85">
-        <v>4.9000000000000002E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>2.1520000000000001</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="B86">
-        <v>8.3000000000000004E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>0.58399999999999996</v>
+        <v>1.6339999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,215 +1429,215 @@
         <v>1.75</v>
       </c>
       <c r="B87">
-        <v>5.8000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>1.6339999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="B88">
-        <v>8.3000000000000004E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>1.5840000000000001</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>1.5</v>
+      </c>
+      <c r="B89">
+        <v>0.125</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
         <v>1.25</v>
-      </c>
-      <c r="B89">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>1.06</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="B90">
         <v>0.125</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>0.125</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>1.125</v>
+        <v>1.8340000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="B92">
-        <v>8.3000000000000004E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>1.8340000000000001</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="B93">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="B94">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="B95">
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="B96">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="B97">
-        <v>6.5000000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>2.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="B98">
-        <v>0.125</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
         <v>1.5</v>
-      </c>
-      <c r="B99">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>1.31</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="B100">
         <v>0.25</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="B101">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>4</v>
+        <v>1.625</v>
       </c>
       <c r="B102">
         <v>0.125</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="B103">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B104">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1663,347 +1645,347 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B106">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B107">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>2.625</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="B108">
         <v>0.25</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="B109">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="B110">
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="B111">
-        <v>6.5000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>2.87</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1.375</v>
+        <v>5</v>
       </c>
       <c r="B112">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B113">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B114">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="B115">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>7.75</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="B116">
-        <v>0.1875</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="B117">
-        <v>6.5000000000000002E-2</v>
+        <v>0.75</v>
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>3.5</v>
+      </c>
+      <c r="B118">
+        <v>0.25</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="B118">
-        <v>0.75</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="B119">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="B120">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1.125</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="B122">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="B123">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>3.625</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="B125">
-        <v>0.375</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="B126">
-        <v>6.5000000000000002E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>3.37</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>4.625</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B128">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B129">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B130">
         <v>0.25</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <f t="shared" ref="C130:C154" si="2">A130-2*B130</f>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B131">
-        <v>0.25</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C155" si="2">A131-2*B131</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3.87</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>3.87</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B133">
-        <v>6.5000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>4.87</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,23 +1993,23 @@
         <v>6</v>
       </c>
       <c r="B134">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="B135">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>5.625</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,95 +2017,95 @@
         <v>3.5</v>
       </c>
       <c r="B136">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="B137">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="B138">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B139">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B140">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>7</v>
+        <v>4.25</v>
       </c>
       <c r="B141">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="B142">
         <v>0.5</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>3.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="B143">
         <v>0.5</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,35 +2113,35 @@
         <v>4.5</v>
       </c>
       <c r="B144">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="B145">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B146">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,59 +2149,59 @@
         <v>7</v>
       </c>
       <c r="B147">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B148">
         <v>0.5</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B149">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="B150">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="B151">
         <v>0.5</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2227,45 +2209,33 @@
         <v>9</v>
       </c>
       <c r="B152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="B154">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>8.5</v>
-      </c>
-      <c r="B155">
-        <v>0.5</v>
-      </c>
-      <c r="C155">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>

--- a/RoundTube_Options.xlsx
+++ b/RoundTube_Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schimmer\OneDrive - Rose-Hulman Institute of Technology\Documents\!! RHIT Fall 2021-22\EM204\EM204_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB71A44-BAC0-457E-A86E-9E10A6E9B3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B21C84-855A-4A4A-B59F-A85965BDCB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1260" windowWidth="21600" windowHeight="11325" xr2:uid="{94F3ECEF-463D-4A3F-B5B9-6A9324BF671F}"/>
+    <workbookView xWindow="6570" yWindow="2970" windowWidth="21600" windowHeight="11325" xr2:uid="{94F3ECEF-463D-4A3F-B5B9-6A9324BF671F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547D6A7-4251-48A0-B41D-4C97424E1C73}">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,85 +2058,85 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>6</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>5</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>7</v>
       </c>
-      <c r="B140">
-        <v>0.25</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>4.25</v>
-      </c>
-      <c r="B141">
-        <v>0.5</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="2"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>6</v>
-      </c>
-      <c r="B142">
-        <v>0.5</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>4.5</v>
-      </c>
-      <c r="B143">
-        <v>0.5</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>4.5</v>
-      </c>
-      <c r="B144">
-        <v>0.75</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>5</v>
-      </c>
-      <c r="B145">
-        <v>0.5</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>7</v>
-      </c>
-      <c r="B146">
-        <v>0.25</v>
-      </c>
-      <c r="C146">
+      <c r="B146" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C146" s="1">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
